--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_NgocKimAnh.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="106">
   <si>
     <t>STT</t>
   </si>
@@ -343,6 +343,21 @@
   </si>
   <si>
     <t>124.158.005.014,16873</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>Nạp lại Fw cho thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị hỏng diode chống quá áp</t>
+  </si>
+  <si>
+    <t>Thay diode chống quá áp</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi cấu hình</t>
   </si>
 </sst>
 </file>
@@ -784,7 +799,22 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -806,21 +836,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1162,43 +1177,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -1243,58 +1258,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1319,23 +1334,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="77" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1377,7 +1392,7 @@
         <v>23</v>
       </c>
       <c r="T6" s="76"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1408,7 +1423,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="76"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1437,7 +1452,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="76"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1466,7 +1481,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1495,7 +1510,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="76"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1524,7 +1539,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="76"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1553,7 +1568,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="76"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1584,7 +1599,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="76"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1613,7 +1628,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1642,7 +1657,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1671,7 +1686,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2902,13 +2917,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2920,6 +2928,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2963,43 +2978,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -3044,58 +3059,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3120,23 +3135,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="77" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3180,7 +3195,7 @@
         <v>23</v>
       </c>
       <c r="T6" s="76"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3211,7 +3226,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="76"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3240,7 +3255,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="76"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3269,7 +3284,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3298,7 +3313,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="76"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3327,7 +3342,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="76"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3356,7 +3371,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="76"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3387,7 +3402,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="76"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3416,7 +3431,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3445,7 +3460,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3474,7 +3489,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4705,13 +4720,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4723,6 +4731,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4734,7 +4749,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4766,43 +4781,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -4847,58 +4862,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -4923,23 +4938,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4983,7 +4998,7 @@
         <v>23</v>
       </c>
       <c r="T6" s="72"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5022,7 +5037,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="72"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5048,9 +5063,15 @@
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="50"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="40"/>
+      <c r="J8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="M8" s="40"/>
       <c r="N8" s="41"/>
       <c r="O8" s="40"/>
@@ -5059,7 +5080,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="72"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5102,7 +5123,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="72"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5145,7 +5166,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="72"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5198,7 +5219,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="72"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5251,7 +5272,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="72"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5282,7 +5303,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="72"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5311,7 +5332,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="72"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5340,7 +5361,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5369,7 +5390,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6600,6 +6621,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6611,13 +6639,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6629,7 +6650,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6661,43 +6682,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -6742,58 +6763,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -6818,23 +6839,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6866,7 +6887,9 @@
       <c r="L6" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
@@ -6875,14 +6898,14 @@
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R6" s="38" t="s">
         <v>24</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6919,15 +6942,25 @@
       <c r="L7" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6962,15 +6995,25 @@
       <c r="L8" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6996,20 +7039,32 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="50"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="K9" s="40"/>
       <c r="L9" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>104</v>
+      </c>
       <c r="N9" s="41"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7064,7 +7119,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7117,7 +7172,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7172,7 +7227,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7206,16 +7261,28 @@
       <c r="K13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="L13" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="41"/>
+      <c r="O13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7252,15 +7319,25 @@
       <c r="L14" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="M14" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" s="41"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7315,7 +7392,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7340,19 +7417,35 @@
         <v>72</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="55"/>
+      <c r="I16" s="55" t="s">
+        <v>73</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="K16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="N16" s="41"/>
+      <c r="O16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7385,12 +7478,22 @@
         <v>69</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
+      <c r="M17" s="40" t="s">
+        <v>102</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
+      <c r="O17" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
       <c r="U17" s="71"/>
@@ -7428,12 +7531,22 @@
       <c r="L18" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
+      <c r="M18" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" s="41"/>
+      <c r="O18" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -7547,7 +7660,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7603,7 +7716,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7884,7 +7997,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -8076,7 +8189,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -8140,7 +8253,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8719,13 +8832,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8737,6 +8843,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8780,43 +8893,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -8861,58 +8974,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -8937,23 +9050,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8979,7 +9092,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9010,7 +9123,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="88"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9039,7 +9152,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9068,7 +9181,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="88"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9097,7 +9210,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="88"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9126,7 +9239,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="88"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9155,7 +9268,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="87" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9186,7 +9299,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="88"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9215,7 +9328,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="88"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9244,7 +9357,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="88"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9273,7 +9386,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="89"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10504,6 +10617,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10515,13 +10635,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_NgocKimAnh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ACT-01" sheetId="35" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="123">
   <si>
     <t>STT</t>
   </si>
@@ -358,6 +358,57 @@
   </si>
   <si>
     <t>Thiết bị lỗi cấu hình</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW cho module GSM</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15353</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>Nạp lại FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.170906</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim+FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Đổi mới thiết bị</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi phần cứng</t>
+  </si>
+  <si>
+    <t>ID thiết bị mới : 21060041</t>
+  </si>
+  <si>
+    <t>Thiết bị hết hạn DV</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GSM</t>
+  </si>
+  <si>
+    <t>Khách báo không sửa</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Set lại cấu hình cho thiết bị</t>
   </si>
 </sst>
 </file>
@@ -799,22 +850,7 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -836,6 +872,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1144,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1177,43 +1228,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -1258,58 +1309,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1334,23 +1385,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="77" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1360,7 +1411,9 @@
       <c r="B6" s="37">
         <v>44378</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44382</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>57</v>
       </c>
@@ -1371,28 +1424,36 @@
       <c r="G6" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="38" t="s">
+        <v>117</v>
+      </c>
       <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="K6" s="60"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>114</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>115</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="T6" s="76"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1423,7 +1484,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="76"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1452,7 +1513,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="76"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1481,7 +1542,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1510,7 +1571,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="76"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1539,7 +1600,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="76"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1568,7 +1629,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="76"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1599,7 +1660,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="76"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1628,7 +1689,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1657,7 +1718,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1686,7 +1747,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1837,7 +1898,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2146,7 +2207,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2274,7 +2335,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2917,6 +2978,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2928,13 +2996,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2945,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14:P14"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2978,43 +3039,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -3059,58 +3120,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3135,23 +3196,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="77" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3161,7 +3222,9 @@
       <c r="B6" s="37">
         <v>44378</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44382</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>71</v>
       </c>
@@ -3173,11 +3236,19 @@
         <v>65</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
+      <c r="I6" s="50" t="s">
+        <v>68</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="K6" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>112</v>
+      </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
@@ -3186,16 +3257,16 @@
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R6" s="38" t="s">
         <v>24</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="T6" s="76"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3226,7 +3297,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="76"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3255,7 +3326,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="76"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3284,7 +3355,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="76"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3313,7 +3384,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="76"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3342,7 +3413,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="76"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3371,7 +3442,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="76"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3402,7 +3473,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="76"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3431,7 +3502,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3460,7 +3531,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3489,7 +3560,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3608,7 +3679,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -4720,6 +4791,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4731,13 +4809,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4748,8 +4819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4781,43 +4852,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -4862,58 +4933,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -4938,23 +5009,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4964,7 +5035,9 @@
       <c r="B6" s="37">
         <v>44378</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44382</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>66</v>
       </c>
@@ -4976,11 +5049,19 @@
         <v>65</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="60"/>
+      <c r="I6" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>109</v>
+      </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
@@ -4994,11 +5075,9 @@
       <c r="R6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="S6" s="4"/>
       <c r="T6" s="72"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5013,7 +5092,9 @@
       <c r="B7" s="37">
         <v>44378</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44382</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>66</v>
       </c>
@@ -5025,19 +5106,37 @@
         <v>65</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="I7" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>120</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="72"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5050,7 +5149,9 @@
       <c r="B8" s="37">
         <v>44378</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44382</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>66</v>
       </c>
@@ -5072,15 +5173,27 @@
       <c r="L8" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>122</v>
+      </c>
       <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="T8" s="72"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5093,7 +5206,9 @@
       <c r="B9" s="37">
         <v>44378</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44382</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>66</v>
       </c>
@@ -5115,15 +5230,27 @@
       <c r="L9" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>122</v>
+      </c>
       <c r="N9" s="41"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="T9" s="72"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5136,7 +5263,9 @@
       <c r="B10" s="37">
         <v>44378</v>
       </c>
-      <c r="C10" s="64"/>
+      <c r="C10" s="37">
+        <v>44382</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>66</v>
       </c>
@@ -5158,15 +5287,25 @@
       <c r="L10" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="72"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5179,7 +5318,9 @@
       <c r="B11" s="37">
         <v>44378</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="37">
+        <v>44382</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>66</v>
       </c>
@@ -5219,7 +5360,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="72"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5232,7 +5373,9 @@
       <c r="B12" s="37">
         <v>44378</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="37">
+        <v>44382</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>66</v>
       </c>
@@ -5272,7 +5415,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="72"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5303,7 +5446,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="72"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5332,7 +5475,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="72"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5361,7 +5504,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5390,7 +5533,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5509,7 +5652,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5541,7 +5684,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5722,7 +5865,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -5978,7 +6121,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6042,7 +6185,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6160,7 +6303,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -6621,13 +6764,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6639,6 +6775,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6649,8 +6792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6682,43 +6825,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -6763,58 +6906,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -6839,23 +6982,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6865,7 +7008,9 @@
       <c r="B6" s="37">
         <v>44378</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44382</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -6905,7 +7050,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6920,7 +7065,9 @@
       <c r="B7" s="37">
         <v>44378</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44382</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -6935,7 +7082,9 @@
       <c r="I7" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="40"/>
+      <c r="J7" s="40" t="s">
+        <v>118</v>
+      </c>
       <c r="K7" s="60" t="s">
         <v>78</v>
       </c>
@@ -6960,7 +7109,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6973,7 +7122,9 @@
       <c r="B8" s="37">
         <v>44378</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44382</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -7013,7 +7164,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7026,7 +7177,9 @@
       <c r="B9" s="37">
         <v>44378</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44382</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -7064,7 +7217,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7077,7 +7230,9 @@
       <c r="B10" s="37">
         <v>44378</v>
       </c>
-      <c r="C10" s="64"/>
+      <c r="C10" s="37">
+        <v>44382</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>44</v>
       </c>
@@ -7119,7 +7274,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7132,7 +7287,9 @@
       <c r="B11" s="37">
         <v>44378</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="37">
+        <v>44382</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
@@ -7172,7 +7329,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7185,7 +7342,9 @@
       <c r="B12" s="37">
         <v>44378</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="37">
+        <v>44382</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
       </c>
@@ -7227,7 +7386,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7242,7 +7401,9 @@
       <c r="B13" s="37">
         <v>44378</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="37">
+        <v>44382</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>44</v>
       </c>
@@ -7282,7 +7443,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7295,7 +7456,9 @@
       <c r="B14" s="37">
         <v>44378</v>
       </c>
-      <c r="C14" s="64"/>
+      <c r="C14" s="37">
+        <v>44382</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>44</v>
       </c>
@@ -7337,7 +7500,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7350,7 +7513,9 @@
       <c r="B15" s="37">
         <v>44378</v>
       </c>
-      <c r="C15" s="64"/>
+      <c r="C15" s="37">
+        <v>44382</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>44</v>
       </c>
@@ -7392,7 +7557,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7405,7 +7570,9 @@
       <c r="B16" s="37">
         <v>44378</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="37">
+        <v>44382</v>
+      </c>
       <c r="D16" s="38" t="s">
         <v>44</v>
       </c>
@@ -7420,7 +7587,9 @@
       <c r="I16" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="K16" s="1" t="s">
         <v>94</v>
       </c>
@@ -7428,7 +7597,7 @@
         <v>69</v>
       </c>
       <c r="M16" s="40" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="N16" s="41"/>
       <c r="O16" s="40" t="s">
@@ -7445,7 +7614,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7458,7 +7627,9 @@
       <c r="B17" s="37">
         <v>44378</v>
       </c>
-      <c r="C17" s="64"/>
+      <c r="C17" s="37">
+        <v>44382</v>
+      </c>
       <c r="D17" s="38" t="s">
         <v>44</v>
       </c>
@@ -7507,7 +7678,9 @@
       <c r="B18" s="37">
         <v>44378</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="37">
+        <v>44382</v>
+      </c>
       <c r="D18" s="38" t="s">
         <v>44</v>
       </c>
@@ -7560,7 +7733,9 @@
       <c r="B19" s="37">
         <v>44378</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="37">
+        <v>44382</v>
+      </c>
       <c r="D19" s="38" t="s">
         <v>44</v>
       </c>
@@ -7615,7 +7790,9 @@
       <c r="B20" s="37">
         <v>44378</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="37">
+        <v>44382</v>
+      </c>
       <c r="D20" s="38" t="s">
         <v>44</v>
       </c>
@@ -7660,7 +7837,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7671,7 +7848,9 @@
       <c r="B21" s="37">
         <v>44378</v>
       </c>
-      <c r="C21" s="65"/>
+      <c r="C21" s="37">
+        <v>44382</v>
+      </c>
       <c r="D21" s="38" t="s">
         <v>44</v>
       </c>
@@ -7727,7 +7906,9 @@
       <c r="B22" s="37">
         <v>44378</v>
       </c>
-      <c r="C22" s="65"/>
+      <c r="C22" s="37">
+        <v>44382</v>
+      </c>
       <c r="D22" s="38" t="s">
         <v>44</v>
       </c>
@@ -7783,7 +7964,9 @@
       <c r="B23" s="37">
         <v>44378</v>
       </c>
-      <c r="C23" s="65"/>
+      <c r="C23" s="37">
+        <v>44382</v>
+      </c>
       <c r="D23" s="38" t="s">
         <v>44</v>
       </c>
@@ -7803,12 +7986,22 @@
         <v>69</v>
       </c>
       <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="M23" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
+      <c r="O23" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
@@ -8189,7 +8382,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -8253,7 +8446,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8832,6 +9025,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8843,13 +9043,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8893,43 +9086,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -8974,58 +9167,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -9050,23 +9243,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9092,7 +9285,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9123,7 +9316,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9152,7 +9345,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9181,7 +9374,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9210,7 +9403,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9239,7 +9432,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9268,7 +9461,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9299,7 +9492,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9328,7 +9521,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9357,7 +9550,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9386,7 +9579,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10617,13 +10810,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10635,6 +10821,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
